--- a/FreeForm.xlsx
+++ b/FreeForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Mehrshad\Codes\.Projects\Apartment 11 Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Mehrshad\GitHub\Apartment_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600A9133-03C5-4226-9E67-C57169170328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5104DC-775B-4100-902B-09BDAE53AC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="بیلان 6 ماهه" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'بیلان 6 ماهه'!$A$1:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
   <si>
     <t>منابع</t>
   </si>
@@ -167,7 +178,7 @@
     <t>نام صاحب حساب:</t>
   </si>
   <si>
-    <t>-</t>
+    <t>مطیعی افشار</t>
   </si>
   <si>
     <t>شماره کارت:</t>
@@ -179,6 +190,9 @@
     <t>شماره شبا:</t>
   </si>
   <si>
+    <t>IR960570</t>
+  </si>
+  <si>
     <t>شماره تلفن همراه اختصاصی مدیریت ساختمان</t>
   </si>
   <si>
@@ -408,15 +422,6 @@
   </si>
   <si>
     <t xml:space="preserve">* صرفه جویی در مصرف آب وظیفه همگانی است.     </t>
-  </si>
-  <si>
-    <t>IR90000</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>yyyy</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1087,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,7 +1263,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -1376,9 +1380,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1416,9 +1420,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1451,26 +1455,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1503,26 +1490,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1703,20 +1673,20 @@
   <sheetViews>
     <sheetView rightToLeft="1" view="pageLayout" zoomScale="85" zoomScaleNormal="75" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="16" customWidth="1"/>
-    <col min="5" max="7" width="18.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="16" customWidth="1"/>
+    <col min="5" max="7" width="18.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="18" style="2" customWidth="1"/>
-    <col min="13" max="23" width="9.140625" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="2"/>
+    <col min="13" max="23" width="9.109375" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="40" customFormat="1" ht="24" customHeight="1">
@@ -1987,13 +1957,13 @@
       <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" s="67" customFormat="1" ht="2.1" customHeight="1">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
@@ -2040,22 +2010,22 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" showRuler="0" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView rightToLeft="1" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="145" zoomScaleNormal="96" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="31.5"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="30.6"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="68" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="69" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="69" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="70" customWidth="1"/>
-    <col min="9" max="19" width="11.28515625" style="68" customWidth="1"/>
-    <col min="20" max="16384" width="11.28515625" style="68"/>
+    <col min="1" max="1" width="5.6640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="69" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" style="70" customWidth="1"/>
+    <col min="9" max="19" width="11.33203125" style="68" customWidth="1"/>
+    <col min="20" max="16384" width="11.33203125" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="13" customFormat="1" ht="45" customHeight="1">
@@ -2081,7 +2051,7 @@
         <v>23</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2091,19 +2061,19 @@
       <c r="B2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="49">
         <f>SUM('سهم آب مصرفی'!H2)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="76">
-        <v>0</v>
-      </c>
-      <c r="F2" s="76">
-        <v>0</v>
-      </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="E2" s="75">
+        <v>0</v>
+      </c>
+      <c r="F2" s="75">
+        <v>0</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="41">
@@ -2124,11 +2094,11 @@
         <f t="shared" ref="E3:E14" si="1">SUM(E2)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="76">
-        <v>0</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
+      <c r="F3" s="75">
+        <v>0</v>
+      </c>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="41">
@@ -2149,11 +2119,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F4" s="76">
-        <v>0</v>
-      </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="F4" s="75">
+        <v>0</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="41">
@@ -2174,11 +2144,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="76">
-        <v>0</v>
-      </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="F5" s="75">
+        <v>0</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="41">
@@ -2199,9 +2169,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="41">
@@ -2222,11 +2192,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="76">
-        <v>0</v>
-      </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
+      <c r="F7" s="75">
+        <v>0</v>
+      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="41">
@@ -2247,11 +2217,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="76">
-        <v>0</v>
-      </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
+      <c r="F8" s="75">
+        <v>0</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="41">
@@ -2272,11 +2242,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="76">
-        <v>0</v>
-      </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
+      <c r="F9" s="75">
+        <v>0</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="41">
@@ -2297,11 +2267,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="76">
-        <v>0</v>
-      </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="F10" s="75">
+        <v>0</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="41">
@@ -2322,11 +2292,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="76">
-        <v>0</v>
-      </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77"/>
+      <c r="F11" s="75">
+        <v>0</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="41">
@@ -2347,11 +2317,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="76">
-        <v>0</v>
-      </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
+      <c r="F12" s="75">
+        <v>0</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="41">
@@ -2372,11 +2342,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F13" s="76">
-        <v>0</v>
-      </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
+      <c r="F13" s="75">
+        <v>0</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="41">
@@ -2397,17 +2367,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F14" s="76">
-        <v>0</v>
-      </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
+      <c r="F14" s="75">
+        <v>0</v>
+      </c>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76"/>
     </row>
     <row r="15" spans="1:8" s="12" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="84"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="50">
         <f t="shared" ref="C15:H15" si="2">SUM(C2:C14)</f>
         <v>0</v>
@@ -2435,10 +2405,10 @@
     </row>
     <row r="16" spans="1:8" ht="6" customHeight="1"/>
     <row r="17" spans="1:8" s="72" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="86"/>
+      <c r="B17" s="85"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -2455,38 +2425,38 @@
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" s="72" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="1:8" s="72" customFormat="1" ht="2.25" customHeight="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
     </row>
     <row r="21" spans="1:8" s="72" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8" s="72" customFormat="1" ht="3" customHeight="1">
       <c r="B22" s="71"/>
@@ -2497,18 +2467,18 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" s="72" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
     </row>
     <row r="24" spans="1:8" s="72" customFormat="1" ht="3" customHeight="1">
       <c r="B24" s="71"/>
@@ -2519,18 +2489,18 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" s="72" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
     </row>
     <row r="26" spans="1:8" s="72" customFormat="1" ht="3" customHeight="1">
       <c r="B26" s="71"/>
@@ -2541,24 +2511,16 @@
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" s="72" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="C27" s="81"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="72" customFormat="1" ht="6" customHeight="1">
@@ -2570,22 +2532,14 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="4">
-        <v>1111</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1111</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1111</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1111</v>
-      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="68"/>
     </row>
     <row r="30" spans="1:8" s="72" customFormat="1" ht="5.25" customHeight="1">
@@ -2597,22 +2551,14 @@
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="4">
-        <v>1111</v>
-      </c>
-      <c r="E31" s="4">
-        <v>123123</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1111</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1111</v>
-      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" s="72" customFormat="1" ht="6" customHeight="1">
@@ -2624,24 +2570,16 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="4">
-        <v>1111</v>
-      </c>
-      <c r="E33" s="4">
-        <v>123123</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1111</v>
-      </c>
-      <c r="G33" s="4">
-        <v>1111</v>
-      </c>
+      <c r="C33" s="81"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:8">
@@ -2654,18 +2592,15 @@
       <c r="H34" s="68"/>
     </row>
     <row r="35" spans="2:8" ht="33.75" customHeight="1">
-      <c r="B35" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="93" t="str">
-        <f>"090000000"</f>
-        <v>090000000</v>
-      </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="94"/>
+      <c r="B35" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2700,20 +2635,20 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScalePageLayoutView="145" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="24.75"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="25.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
     <col min="5" max="5" width="15" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="11" customWidth="1"/>
-    <col min="7" max="8" width="19.5703125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="72" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="11" customWidth="1"/>
+    <col min="7" max="8" width="19.5546875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="72" customWidth="1"/>
     <col min="10" max="20" width="7" style="72" customWidth="1"/>
     <col min="21" max="16384" width="7" style="72"/>
   </cols>
@@ -2726,25 +2661,25 @@
         <v>18</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2754,14 +2689,14 @@
       <c r="B2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="97">
-        <v>0</v>
-      </c>
-      <c r="E2" s="97">
-        <v>0</v>
-      </c>
-      <c r="F2" s="100">
+      <c r="C2" s="74"/>
+      <c r="D2" s="96">
+        <v>0</v>
+      </c>
+      <c r="E2" s="96">
+        <v>0</v>
+      </c>
+      <c r="F2" s="99">
         <v>0</v>
       </c>
       <c r="G2" s="51">
@@ -2784,10 +2719,10 @@
       <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="101"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="100"/>
       <c r="G3" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2808,10 +2743,10 @@
       <c r="B4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="101"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2832,10 +2767,10 @@
       <c r="B5" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="101"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2856,10 +2791,10 @@
       <c r="B6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="101"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2880,10 +2815,10 @@
       <c r="B7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="101"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2904,10 +2839,10 @@
       <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="101"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2928,10 +2863,10 @@
       <c r="B9" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="101"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2952,10 +2887,10 @@
       <c r="B10" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="101"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2976,10 +2911,10 @@
       <c r="B11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="101"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3000,10 +2935,10 @@
       <c r="B12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="101"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3024,10 +2959,10 @@
       <c r="B13" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="101"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3048,10 +2983,10 @@
       <c r="B14" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="102"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3066,10 +3001,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="84"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="48">
         <f t="shared" ref="C15:I15" si="3">SUM(C2:C14)</f>
         <v>0</v>
@@ -3122,77 +3057,77 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="73" customWidth="1"/>
-    <col min="2" max="3" width="13.7109375" style="73" customWidth="1"/>
-    <col min="4" max="10" width="8.7109375" style="73" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="73" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="10" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75" customHeight="1">
-      <c r="A1" s="108" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="106" t="s">
+      <c r="B1" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="84"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A2" s="99"/>
+      <c r="A2" s="98"/>
       <c r="B2" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1">
       <c r="A3" s="53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
@@ -3204,13 +3139,13 @@
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
@@ -3222,13 +3157,13 @@
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1">
       <c r="A5" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
@@ -3240,13 +3175,13 @@
     </row>
     <row r="6" spans="1:10" ht="22.5" customHeight="1">
       <c r="A6" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
@@ -3258,13 +3193,13 @@
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1">
       <c r="A7" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -3276,13 +3211,13 @@
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1">
       <c r="A8" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -3294,13 +3229,13 @@
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1">
       <c r="A9" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
@@ -3312,13 +3247,13 @@
     </row>
     <row r="10" spans="1:10" ht="22.5" customHeight="1">
       <c r="A10" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
@@ -3330,13 +3265,13 @@
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1">
       <c r="A11" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -3348,13 +3283,13 @@
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1">
       <c r="A12" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
@@ -3366,13 +3301,13 @@
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1">
       <c r="A13" s="53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
@@ -3384,13 +3319,13 @@
     </row>
     <row r="14" spans="1:10" ht="22.5" customHeight="1">
       <c r="A14" s="53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
@@ -3402,13 +3337,13 @@
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1">
       <c r="A15" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
@@ -3420,13 +3355,13 @@
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
@@ -3438,13 +3373,13 @@
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1">
       <c r="A17" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
@@ -3456,13 +3391,13 @@
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1">
       <c r="A18" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
@@ -3474,13 +3409,13 @@
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1">
       <c r="A19" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
@@ -3492,13 +3427,13 @@
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1">
       <c r="A20" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
@@ -3510,13 +3445,13 @@
     </row>
     <row r="21" spans="1:10" ht="22.5" customHeight="1">
       <c r="A21" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -3528,13 +3463,13 @@
     </row>
     <row r="22" spans="1:10" ht="22.5" customHeight="1">
       <c r="A22" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
@@ -3545,126 +3480,126 @@
       <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="105"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A25" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
+      <c r="A25" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A26" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
+      <c r="A26" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A27" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
+      <c r="A27" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A28" s="113" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
+      <c r="A28" s="112" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A29" s="103"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A30" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
+      <c r="A30" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A31" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
+      <c r="A31" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3682,7 +3617,7 @@
     <mergeCell ref="A29:J29"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"B Nazanin,Bold"&amp;10 بسمه تعالی
 جدول زمانبندی آبیاری فضای سبز ساختمان شماره 11</oddHeader>
